--- a/data/trans_camb/P34A_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P34A_R-Provincia-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,21; 4,1</t>
+          <t>-12,89; 4,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 15,76</t>
+          <t>-1,36; 16,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 16,5</t>
+          <t>0,04; 16,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,49; 24,34</t>
+          <t>8,09; 24,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 7,35</t>
+          <t>-4,08; 7,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,76; 18,66</t>
+          <t>6,0; 17,49</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,03; 12,62</t>
+          <t>-31,47; 14,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 51,1</t>
+          <t>-3,43; 50,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 57,15</t>
+          <t>-0,0; 57,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,48; 85,17</t>
+          <t>20,73; 83,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 22,89</t>
+          <t>-10,65; 24,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,75; 60,22</t>
+          <t>15,66; 53,87</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,51; -5,79</t>
+          <t>-17,17; -5,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 2,58</t>
+          <t>-9,5; 2,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 12,7</t>
+          <t>-0,53; 12,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,92; -1,27</t>
+          <t>-13,95; -1,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 0,52</t>
+          <t>-12,24; -0,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,62; 15,03</t>
+          <t>3,88; 15,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,15; -5,47</t>
+          <t>-14,05; -5,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,91; -0,44</t>
+          <t>-8,81; -0,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,47; 12,59</t>
+          <t>3,73; 12,98</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-46,9; -19,26</t>
+          <t>-47,45; -18,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,43; 8,52</t>
+          <t>-26,02; 8,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 42,8</t>
+          <t>-1,33; 43,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,95; -3,15</t>
+          <t>-30,78; -4,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,59; 1,41</t>
+          <t>-26,41; -0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,79; 37,14</t>
+          <t>8,49; 39,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,61; -15,55</t>
+          <t>-35,02; -15,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-21,98; -1,29</t>
+          <t>-21,69; -0,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,47; 34,72</t>
+          <t>9,2; 36,39</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-30,26; -16,21</t>
+          <t>-30,09; -15,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,39; -2,44</t>
+          <t>-17,45; -2,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,35; 3,22</t>
+          <t>-12,45; 2,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-27,61; -14,12</t>
+          <t>-27,62; -14,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 3,45</t>
+          <t>-10,62; 4,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 5,64</t>
+          <t>-7,7; 5,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-26,88; -17,04</t>
+          <t>-26,68; -17,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,18; -1,49</t>
+          <t>-11,95; -0,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 2,37</t>
+          <t>-8,2; 2,06</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-65,9; -42,3</t>
+          <t>-66,18; -41,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,98; -5,61</t>
+          <t>-38,51; -6,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,61; 8,54</t>
+          <t>-27,34; 7,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-63,37; -37,99</t>
+          <t>-63,08; -38,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-25,84; 9,85</t>
+          <t>-24,15; 14,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,33; 15,3</t>
+          <t>-16,81; 15,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-61,82; -44,56</t>
+          <t>-61,34; -44,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-27,01; -3,0</t>
+          <t>-27,37; -2,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-18,27; 6,11</t>
+          <t>-18,37; 5,51</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-19,04; -6,53</t>
+          <t>-19,13; -6,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-23,62; -9,85</t>
+          <t>-23,69; -10,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 3,01</t>
+          <t>-13,23; 3,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,08; -0,69</t>
+          <t>-13,57; -1,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 0,5</t>
+          <t>-14,68; -0,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 4,56</t>
+          <t>-10,63; 4,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-14,51; -5,44</t>
+          <t>-13,9; -5,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-16,75; -6,66</t>
+          <t>-16,45; -7,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 2,51</t>
+          <t>-8,71; 2,33</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-45,11; -18,98</t>
+          <t>-44,74; -18,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-56,83; -28,42</t>
+          <t>-57,07; -29,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-33,69; 8,3</t>
+          <t>-32,4; 9,4</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,83; -1,72</t>
+          <t>-29,87; -2,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,79; 1,26</t>
+          <t>-31,8; -0,08</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-22,27; 11,51</t>
+          <t>-23,55; 13,08</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-33,23; -14,39</t>
+          <t>-32,58; -13,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-39,22; -17,75</t>
+          <t>-38,56; -18,26</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-21,85; 6,47</t>
+          <t>-20,61; 6,48</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-30,68; -11,4</t>
+          <t>-30,59; -11,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-23,52; -4,85</t>
+          <t>-24,82; -4,64</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-48,54; -31,55</t>
+          <t>-48,14; -31,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-39,42; -19,46</t>
+          <t>-38,06; -19,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-28,58; -9,69</t>
+          <t>-29,02; -10,11</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-61,38; -46,77</t>
+          <t>-61,11; -46,51</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-32,65; -19,21</t>
+          <t>-32,92; -19,44</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-24,51; -11,29</t>
+          <t>-24,88; -10,23</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-52,47; -41,36</t>
+          <t>-53,05; -41,74</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-56,83; -25,61</t>
+          <t>-56,78; -25,11</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-43,63; -10,94</t>
+          <t>-45,42; -10,66</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-86,33; -70,6</t>
+          <t>-86,9; -71,28</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-55,07; -31,4</t>
+          <t>-53,46; -31,15</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-40,28; -15,57</t>
+          <t>-40,59; -16,26</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-84,55; -73,49</t>
+          <t>-84,47; -73,8</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-52,38; -33,76</t>
+          <t>-52,61; -34,45</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-38,88; -19,91</t>
+          <t>-39,98; -18,94</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-83,5; -74,84</t>
+          <t>-83,78; -74,55</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-31,37; -16,31</t>
+          <t>-30,35; -15,4</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,61; 5,11</t>
+          <t>-11,26; 4,34</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 10,4</t>
+          <t>-5,31; 10,17</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-33,21; -18,55</t>
+          <t>-33,3; -17,04</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 4,73</t>
+          <t>-11,42; 5,32</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 4,98</t>
+          <t>-10,41; 5,18</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-30,19; -19,5</t>
+          <t>-29,59; -18,69</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 2,5</t>
+          <t>-9,34; 2,45</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 5,22</t>
+          <t>-5,76; 5,84</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-73,34; -48,74</t>
+          <t>-73,12; -44,83</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-27,54; 15,24</t>
+          <t>-27,0; 12,88</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-12,35; 31,0</t>
+          <t>-12,35; 29,72</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-67,57; -44,09</t>
+          <t>-68,49; -42,87</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-23,18; 12,27</t>
+          <t>-23,29; 13,45</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-21,96; 12,18</t>
+          <t>-21,5; 13,04</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-67,72; -50,33</t>
+          <t>-67,19; -48,62</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-20,94; 6,75</t>
+          <t>-21,01; 6,4</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 14,04</t>
+          <t>-13,2; 15,01</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-29,02; -18,79</t>
+          <t>-29,18; -18,74</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 1,01</t>
+          <t>-10,38; 0,87</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-22,06; -10,5</t>
+          <t>-21,78; -10,47</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-26,21; -15,42</t>
+          <t>-25,76; -15,02</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 5,39</t>
+          <t>-5,26; 5,61</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-24,11; -3,41</t>
+          <t>-25,28; -3,83</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-26,01; -18,26</t>
+          <t>-25,65; -18,16</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 1,72</t>
+          <t>-6,26; 1,96</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-22,03; -8,62</t>
+          <t>-22,01; -8,57</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-61,53; -44,33</t>
+          <t>-61,99; -44,03</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-22,04; 1,98</t>
+          <t>-21,74; 2,49</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-46,98; -25,43</t>
+          <t>-46,19; -24,5</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-52,84; -34,62</t>
+          <t>-52,54; -34,9</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 12,68</t>
+          <t>-10,62; 12,98</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-50,73; -7,93</t>
+          <t>-54,19; -8,62</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-54,99; -42,22</t>
+          <t>-54,83; -42,04</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 4,02</t>
+          <t>-13,2; 4,54</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-47,96; -19,55</t>
+          <t>-47,5; -19,62</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-26,01; -16,12</t>
+          <t>-26,34; -16,25</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-12,48; -2,27</t>
+          <t>-12,31; -1,91</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-22,78; -11,02</t>
+          <t>-23,0; -10,88</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-20,03; -9,99</t>
+          <t>-19,98; -9,91</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 2,13</t>
+          <t>-8,14; 2,1</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-21,43; -11,16</t>
+          <t>-20,57; -10,77</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-21,28; -14,34</t>
+          <t>-21,21; -14,21</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-8,86; -1,42</t>
+          <t>-8,56; -1,32</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-20,51; -12,46</t>
+          <t>-20,21; -12,48</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-54,52; -37,55</t>
+          <t>-54,6; -37,76</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-25,54; -5,29</t>
+          <t>-25,61; -4,19</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-48,65; -25,83</t>
+          <t>-49,05; -25,28</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-37,13; -20,13</t>
+          <t>-36,88; -20,16</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 4,3</t>
+          <t>-14,94; 4,26</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-38,89; -22,32</t>
+          <t>-37,97; -21,68</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-42,54; -30,59</t>
+          <t>-42,43; -30,95</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-17,45; -3,04</t>
+          <t>-16,87; -2,71</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-41,13; -26,49</t>
+          <t>-41,01; -26,7</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-20,84; -16,34</t>
+          <t>-20,95; -16,2</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-9,63; -4,87</t>
+          <t>-9,81; -5,05</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-11,22; -5,95</t>
+          <t>-11,13; -5,8</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-17,47; -12,86</t>
+          <t>-17,38; -12,73</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-5,72; -0,72</t>
+          <t>-5,92; -0,99</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-11,15; -4,49</t>
+          <t>-10,9; -4,64</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-18,42; -15,26</t>
+          <t>-18,44; -15,26</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-7,07; -3,6</t>
+          <t>-7,08; -3,63</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-9,67; -5,72</t>
+          <t>-9,87; -5,68</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-49,31; -40,96</t>
+          <t>-49,55; -40,67</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-22,76; -12,18</t>
+          <t>-23,38; -12,72</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-26,35; -15,03</t>
+          <t>-26,55; -14,55</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-37,11; -28,88</t>
+          <t>-36,99; -28,37</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-12,07; -1,64</t>
+          <t>-12,6; -2,18</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-23,78; -9,94</t>
+          <t>-23,25; -10,27</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-41,4; -35,65</t>
+          <t>-41,41; -35,57</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-15,82; -8,36</t>
+          <t>-15,97; -8,48</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-22,3; -13,37</t>
+          <t>-22,39; -13,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P34A_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P34A_R-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 4,34</t>
+          <t>-12,26; 3,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 16,3</t>
+          <t>-0,51; 16,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 16,97</t>
+          <t>-0,76; 15,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,09; 24,14</t>
+          <t>8,82; 24,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 7,83</t>
+          <t>-3,87; 8,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,0; 17,49</t>
+          <t>6,13; 17,83</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,47; 14,11</t>
+          <t>-29,93; 12,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 50,42</t>
+          <t>-1,28; 49,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 57,87</t>
+          <t>-2,6; 52,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,73; 83,63</t>
+          <t>22,37; 86,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 24,59</t>
+          <t>-10,49; 25,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,66; 53,87</t>
+          <t>15,38; 56,51</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,17; -5,58</t>
+          <t>-16,65; -5,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 2,68</t>
+          <t>-9,42; 2,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 12,69</t>
+          <t>-1,84; 12,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,95; -1,74</t>
+          <t>-14,51; -2,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,24; -0,11</t>
+          <t>-11,93; -0,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,88; 15,53</t>
+          <t>3,84; 15,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,05; -5,44</t>
+          <t>-13,45; -5,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,81; -0,1</t>
+          <t>-9,27; -0,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,73; 12,98</t>
+          <t>3,17; 12,05</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-47,45; -18,06</t>
+          <t>-47,34; -18,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,02; 8,82</t>
+          <t>-26,51; 9,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 43,55</t>
+          <t>-5,63; 41,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,78; -4,45</t>
+          <t>-31,57; -5,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,41; -0,0</t>
+          <t>-25,64; -0,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,49; 39,03</t>
+          <t>7,68; 38,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-35,02; -15,25</t>
+          <t>-33,53; -15,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-21,69; -0,1</t>
+          <t>-23,09; -0,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,2; 36,39</t>
+          <t>8,05; 33,7</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-30,09; -15,57</t>
+          <t>-30,75; -15,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,45; -2,29</t>
+          <t>-17,65; -2,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,45; 2,89</t>
+          <t>-13,2; 2,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-27,62; -14,18</t>
+          <t>-27,43; -13,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 4,91</t>
+          <t>-11,51; 3,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 5,44</t>
+          <t>-8,55; 5,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-26,68; -17,21</t>
+          <t>-27,27; -17,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,95; -0,99</t>
+          <t>-12,14; -1,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 2,06</t>
+          <t>-7,52; 2,27</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-66,18; -41,14</t>
+          <t>-66,42; -41,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-38,51; -6,14</t>
+          <t>-38,36; -5,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-27,34; 7,53</t>
+          <t>-28,76; 7,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-63,08; -38,82</t>
+          <t>-63,06; -37,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-24,15; 14,12</t>
+          <t>-25,4; 10,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,81; 15,06</t>
+          <t>-19,0; 15,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-61,34; -44,94</t>
+          <t>-61,9; -44,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-27,37; -2,67</t>
+          <t>-27,56; -3,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-18,37; 5,51</t>
+          <t>-17,15; 6,04</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-19,13; -6,57</t>
+          <t>-18,55; -6,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-23,69; -10,61</t>
+          <t>-23,26; -9,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,23; 3,23</t>
+          <t>-13,24; 3,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,57; -1,03</t>
+          <t>-13,24; -1,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-14,68; -0,03</t>
+          <t>-13,44; 0,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 4,93</t>
+          <t>-10,52; 4,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-13,9; -5,01</t>
+          <t>-14,1; -5,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-16,45; -7,09</t>
+          <t>-16,85; -6,98</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 2,33</t>
+          <t>-8,4; 2,12</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-44,74; -18,74</t>
+          <t>-43,44; -17,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-57,07; -29,63</t>
+          <t>-56,17; -28,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-32,4; 9,4</t>
+          <t>-31,74; 10,29</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-29,87; -2,6</t>
+          <t>-28,87; -2,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,8; -0,08</t>
+          <t>-29,96; 2,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,55; 13,08</t>
+          <t>-23,27; 12,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-32,58; -13,9</t>
+          <t>-32,78; -14,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-38,56; -18,26</t>
+          <t>-39,13; -18,66</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-20,61; 6,48</t>
+          <t>-20,03; 5,49</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-30,59; -11,28</t>
+          <t>-30,68; -12,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-24,82; -4,64</t>
+          <t>-23,95; -4,08</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-48,14; -31,88</t>
+          <t>-47,77; -31,59</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-38,06; -19,46</t>
+          <t>-39,73; -21,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-29,02; -10,11</t>
+          <t>-28,95; -11,08</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-61,11; -46,51</t>
+          <t>-61,09; -45,67</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-32,92; -19,44</t>
+          <t>-32,44; -18,46</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-24,88; -10,23</t>
+          <t>-24,89; -10,29</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-53,05; -41,74</t>
+          <t>-52,67; -41,34</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-56,78; -25,11</t>
+          <t>-56,97; -27,35</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-45,42; -10,66</t>
+          <t>-44,64; -9,38</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-86,9; -71,28</t>
+          <t>-87,0; -71,85</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-53,46; -31,15</t>
+          <t>-55,18; -32,96</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-40,59; -16,26</t>
+          <t>-39,94; -17,03</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-84,47; -73,8</t>
+          <t>-84,63; -73,97</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-52,61; -34,45</t>
+          <t>-52,2; -32,89</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-39,98; -18,94</t>
+          <t>-40,12; -18,95</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-83,78; -74,55</t>
+          <t>-83,45; -74,64</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-30,35; -15,4</t>
+          <t>-30,99; -15,65</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 4,34</t>
+          <t>-11,69; 5,11</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 10,17</t>
+          <t>-5,14; 10,59</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-33,3; -17,04</t>
+          <t>-33,64; -18,09</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 5,32</t>
+          <t>-12,49; 4,96</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 5,18</t>
+          <t>-11,0; 5,24</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-29,59; -18,69</t>
+          <t>-30,16; -19,22</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 2,45</t>
+          <t>-9,11; 2,71</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 5,84</t>
+          <t>-5,72; 5,11</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-73,12; -44,83</t>
+          <t>-74,45; -47,47</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-27,0; 12,88</t>
+          <t>-27,44; 15,47</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-12,35; 29,72</t>
+          <t>-12,44; 32,08</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-68,49; -42,87</t>
+          <t>-68,93; -43,8</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-23,29; 13,45</t>
+          <t>-25,0; 12,94</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-21,5; 13,04</t>
+          <t>-21,81; 13,25</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-67,19; -48,62</t>
+          <t>-67,38; -50,29</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-21,01; 6,4</t>
+          <t>-20,37; 7,15</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 15,01</t>
+          <t>-12,77; 13,32</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-29,18; -18,74</t>
+          <t>-29,55; -18,69</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 0,87</t>
+          <t>-10,86; 0,86</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-21,78; -10,47</t>
+          <t>-21,58; -10,45</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-25,76; -15,02</t>
+          <t>-25,99; -15,23</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 5,61</t>
+          <t>-5,07; 5,87</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-25,28; -3,83</t>
+          <t>-24,54; -3,43</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-25,65; -18,16</t>
+          <t>-25,83; -18,45</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 1,96</t>
+          <t>-6,23; 1,8</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-22,01; -8,57</t>
+          <t>-21,41; -8,28</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-61,99; -44,03</t>
+          <t>-62,16; -45,05</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-21,74; 2,49</t>
+          <t>-23,04; 2,19</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-46,19; -24,5</t>
+          <t>-45,97; -25,12</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-52,54; -34,9</t>
+          <t>-52,99; -34,73</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 12,98</t>
+          <t>-10,25; 13,59</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-54,19; -8,62</t>
+          <t>-51,66; -7,93</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-54,83; -42,04</t>
+          <t>-54,48; -42,23</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 4,54</t>
+          <t>-13,17; 4,21</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-47,5; -19,62</t>
+          <t>-46,67; -19,44</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-26,34; -16,25</t>
+          <t>-25,77; -16,38</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-12,31; -1,91</t>
+          <t>-12,26; -1,69</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-23,0; -10,88</t>
+          <t>-22,66; -10,57</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-19,98; -9,91</t>
+          <t>-19,98; -9,88</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 2,1</t>
+          <t>-7,48; 2,64</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-20,57; -10,77</t>
+          <t>-20,83; -10,95</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-21,21; -14,21</t>
+          <t>-21,11; -14,2</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-8,56; -1,32</t>
+          <t>-8,62; -1,13</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-20,21; -12,48</t>
+          <t>-19,96; -12,16</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-54,6; -37,76</t>
+          <t>-54,38; -37,93</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-25,61; -4,19</t>
+          <t>-25,83; -4,0</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-49,05; -25,28</t>
+          <t>-48,7; -24,97</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-36,88; -20,16</t>
+          <t>-36,99; -20,17</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-14,94; 4,26</t>
+          <t>-14,0; 5,27</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-37,97; -21,68</t>
+          <t>-38,37; -21,66</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-42,43; -30,95</t>
+          <t>-42,27; -30,04</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-16,87; -2,71</t>
+          <t>-17,45; -2,46</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-41,01; -26,7</t>
+          <t>-40,25; -26,08</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-20,95; -16,2</t>
+          <t>-20,95; -16,49</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-9,81; -5,05</t>
+          <t>-9,63; -4,89</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-11,13; -5,8</t>
+          <t>-10,97; -5,79</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-17,38; -12,73</t>
+          <t>-17,68; -12,94</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-5,92; -0,99</t>
+          <t>-5,95; -0,92</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-10,9; -4,64</t>
+          <t>-10,93; -4,68</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-18,44; -15,26</t>
+          <t>-18,35; -15,17</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-7,08; -3,63</t>
+          <t>-6,91; -3,46</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-9,87; -5,68</t>
+          <t>-9,96; -5,6</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-49,55; -40,67</t>
+          <t>-49,49; -41,11</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-23,38; -12,72</t>
+          <t>-22,9; -12,4</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-26,55; -14,55</t>
+          <t>-26,14; -14,65</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-36,99; -28,37</t>
+          <t>-37,27; -28,63</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-12,6; -2,18</t>
+          <t>-12,36; -1,92</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-23,25; -10,27</t>
+          <t>-23,92; -10,39</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-41,41; -35,57</t>
+          <t>-41,33; -35,51</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-15,97; -8,48</t>
+          <t>-15,62; -8,12</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-22,39; -13,29</t>
+          <t>-22,52; -13,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P34A_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P34A_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 3,74</t>
+          <t>-12,21; 4,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 16,17</t>
+          <t>-1,41; 15,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 15,39</t>
+          <t>-0,68; 16,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,82; 24,37</t>
+          <t>8,49; 24,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 8,02</t>
+          <t>-4,06; 7,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,13; 17,83</t>
+          <t>6,76; 18,66</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,93; 12,73</t>
+          <t>-31,03; 12,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 49,81</t>
+          <t>-3,46; 51,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 52,97</t>
+          <t>-1,95; 57,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,37; 86,33</t>
+          <t>22,48; 85,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,49; 25,15</t>
+          <t>-10,78; 22,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,38; 56,51</t>
+          <t>17,75; 60,22</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,65; -5,44</t>
+          <t>-16,51; -5,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 2,62</t>
+          <t>-9,16; 2,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 12,5</t>
+          <t>-0,87; 12,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,51; -2,05</t>
+          <t>-13,92; -1,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,93; -0,11</t>
+          <t>-12,3; 0,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,84; 15,25</t>
+          <t>3,62; 15,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,45; -5,48</t>
+          <t>-14,15; -5,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,27; -0,25</t>
+          <t>-8,91; -0,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,17; 12,05</t>
+          <t>3,47; 12,59</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-47,34; -18,06</t>
+          <t>-46,9; -19,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,51; 9,09</t>
+          <t>-25,43; 8,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 41,71</t>
+          <t>-2,4; 42,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,57; -5,3</t>
+          <t>-29,95; -3,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,64; -0,3</t>
+          <t>-26,59; 1,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,68; 38,27</t>
+          <t>7,79; 37,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-33,53; -15,09</t>
+          <t>-34,61; -15,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,09; -0,94</t>
+          <t>-21,98; -1,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,05; 33,7</t>
+          <t>8,47; 34,72</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-30,75; -15,77</t>
+          <t>-30,26; -16,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,65; -2,59</t>
+          <t>-17,39; -2,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 2,63</t>
+          <t>-12,35; 3,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-27,43; -13,53</t>
+          <t>-27,61; -14,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 3,8</t>
+          <t>-11,48; 3,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 5,53</t>
+          <t>-7,7; 5,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-27,27; -17,19</t>
+          <t>-26,88; -17,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,14; -1,6</t>
+          <t>-12,18; -1,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 2,27</t>
+          <t>-7,87; 2,37</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-66,42; -41,06</t>
+          <t>-65,9; -42,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-38,36; -5,9</t>
+          <t>-37,98; -5,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-28,76; 7,47</t>
+          <t>-26,61; 8,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-63,06; -37,28</t>
+          <t>-63,37; -37,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-25,4; 10,38</t>
+          <t>-25,84; 9,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,0; 15,11</t>
+          <t>-17,33; 15,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-61,9; -44,79</t>
+          <t>-61,82; -44,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-27,56; -3,94</t>
+          <t>-27,01; -3,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 6,04</t>
+          <t>-18,27; 6,11</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-18,55; -6,12</t>
+          <t>-19,04; -6,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-23,26; -9,81</t>
+          <t>-23,62; -9,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,24; 3,56</t>
+          <t>-13,76; 3,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,24; -1,16</t>
+          <t>-13,08; -0,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,44; 0,8</t>
+          <t>-13,86; 0,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 4,95</t>
+          <t>-10,17; 4,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-14,1; -5,26</t>
+          <t>-14,51; -5,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-16,85; -6,98</t>
+          <t>-16,75; -6,66</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 2,12</t>
+          <t>-9,24; 2,51</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-43,44; -17,61</t>
+          <t>-45,11; -18,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-56,17; -28,73</t>
+          <t>-56,83; -28,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-31,74; 10,29</t>
+          <t>-33,69; 8,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,87; -2,84</t>
+          <t>-28,83; -1,72</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,96; 2,18</t>
+          <t>-30,79; 1,26</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,27; 12,67</t>
+          <t>-22,27; 11,51</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-32,78; -14,25</t>
+          <t>-33,23; -14,39</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-39,13; -18,66</t>
+          <t>-39,22; -17,75</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-20,03; 5,49</t>
+          <t>-21,85; 6,47</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-30,68; -12,26</t>
+          <t>-30,68; -11,4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-23,95; -4,08</t>
+          <t>-23,52; -4,85</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-47,77; -31,59</t>
+          <t>-48,54; -31,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-39,73; -21,01</t>
+          <t>-39,42; -19,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-28,95; -11,08</t>
+          <t>-28,58; -9,69</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-61,09; -45,67</t>
+          <t>-61,38; -46,77</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-32,44; -18,46</t>
+          <t>-32,65; -19,21</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-24,89; -10,29</t>
+          <t>-24,51; -11,29</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-52,67; -41,34</t>
+          <t>-52,47; -41,36</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-56,97; -27,35</t>
+          <t>-56,83; -25,61</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-44,64; -9,38</t>
+          <t>-43,63; -10,94</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-87,0; -71,85</t>
+          <t>-86,33; -70,6</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-55,18; -32,96</t>
+          <t>-55,07; -31,4</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-39,94; -17,03</t>
+          <t>-40,28; -15,57</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-84,63; -73,97</t>
+          <t>-84,55; -73,49</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-52,2; -32,89</t>
+          <t>-52,38; -33,76</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-40,12; -18,95</t>
+          <t>-38,88; -19,91</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-83,45; -74,64</t>
+          <t>-83,5; -74,84</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-30,99; -15,65</t>
+          <t>-31,37; -16,31</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,69; 5,11</t>
+          <t>-11,61; 5,11</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 10,59</t>
+          <t>-5,19; 10,4</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-33,64; -18,09</t>
+          <t>-33,21; -18,55</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-12,49; 4,96</t>
+          <t>-11,53; 4,73</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 5,24</t>
+          <t>-10,63; 4,98</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-30,16; -19,22</t>
+          <t>-30,19; -19,5</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 2,71</t>
+          <t>-9,2; 2,5</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 5,11</t>
+          <t>-6,08; 5,22</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-74,45; -47,47</t>
+          <t>-73,34; -48,74</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-27,44; 15,47</t>
+          <t>-27,54; 15,24</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 32,08</t>
+          <t>-12,35; 31,0</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-68,93; -43,8</t>
+          <t>-67,57; -44,09</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-25,0; 12,94</t>
+          <t>-23,18; 12,27</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-21,81; 13,25</t>
+          <t>-21,96; 12,18</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-67,38; -50,29</t>
+          <t>-67,72; -50,33</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-20,37; 7,15</t>
+          <t>-20,94; 6,75</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 13,32</t>
+          <t>-13,4; 14,04</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-29,55; -18,69</t>
+          <t>-29,02; -18,79</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 0,86</t>
+          <t>-10,31; 1,01</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-21,58; -10,45</t>
+          <t>-22,06; -10,5</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-25,99; -15,23</t>
+          <t>-26,21; -15,42</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 5,87</t>
+          <t>-5,62; 5,39</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-24,54; -3,43</t>
+          <t>-24,11; -3,41</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-25,83; -18,45</t>
+          <t>-26,01; -18,26</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 1,8</t>
+          <t>-6,4; 1,72</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-21,41; -8,28</t>
+          <t>-22,03; -8,62</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-62,16; -45,05</t>
+          <t>-61,53; -44,33</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-23,04; 2,19</t>
+          <t>-22,04; 1,98</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-45,97; -25,12</t>
+          <t>-46,98; -25,43</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-52,99; -34,73</t>
+          <t>-52,84; -34,62</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 13,59</t>
+          <t>-11,43; 12,68</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-51,66; -7,93</t>
+          <t>-50,73; -7,93</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-54,48; -42,23</t>
+          <t>-54,99; -42,22</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 4,21</t>
+          <t>-13,5; 4,02</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-46,67; -19,44</t>
+          <t>-47,96; -19,55</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-25,77; -16,38</t>
+          <t>-26,01; -16,12</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-12,26; -1,69</t>
+          <t>-12,48; -2,27</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-22,66; -10,57</t>
+          <t>-22,78; -11,02</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-19,98; -9,88</t>
+          <t>-20,03; -9,99</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 2,64</t>
+          <t>-8,4; 2,13</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-20,83; -10,95</t>
+          <t>-21,43; -11,16</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-21,11; -14,2</t>
+          <t>-21,28; -14,34</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-8,62; -1,13</t>
+          <t>-8,86; -1,42</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-19,96; -12,16</t>
+          <t>-20,51; -12,46</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-54,38; -37,93</t>
+          <t>-54,52; -37,55</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-25,83; -4,0</t>
+          <t>-25,54; -5,29</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-48,7; -24,97</t>
+          <t>-48,65; -25,83</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-36,99; -20,17</t>
+          <t>-37,13; -20,13</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-14,0; 5,27</t>
+          <t>-15,36; 4,3</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-38,37; -21,66</t>
+          <t>-38,89; -22,32</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-42,27; -30,04</t>
+          <t>-42,54; -30,59</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-17,45; -2,46</t>
+          <t>-17,45; -3,04</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-40,25; -26,08</t>
+          <t>-41,13; -26,49</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-20,95; -16,49</t>
+          <t>-20,84; -16,34</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-9,63; -4,89</t>
+          <t>-9,63; -4,87</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-10,97; -5,79</t>
+          <t>-11,22; -5,95</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-17,68; -12,94</t>
+          <t>-17,47; -12,86</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-5,95; -0,92</t>
+          <t>-5,72; -0,72</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-10,93; -4,68</t>
+          <t>-11,15; -4,49</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-18,35; -15,17</t>
+          <t>-18,42; -15,26</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-6,91; -3,46</t>
+          <t>-7,07; -3,6</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-9,96; -5,6</t>
+          <t>-9,67; -5,72</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-49,49; -41,11</t>
+          <t>-49,31; -40,96</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-22,9; -12,4</t>
+          <t>-22,76; -12,18</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-26,14; -14,65</t>
+          <t>-26,35; -15,03</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-37,27; -28,63</t>
+          <t>-37,11; -28,88</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-12,36; -1,92</t>
+          <t>-12,07; -1,64</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-23,92; -10,39</t>
+          <t>-23,78; -9,94</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-41,33; -35,51</t>
+          <t>-41,4; -35,65</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-15,62; -8,12</t>
+          <t>-15,82; -8,36</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-22,52; -13,08</t>
+          <t>-22,3; -13,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P34A_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P34A_R-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-11,62</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,71</t>
+          <t>6,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,53</t>
+          <t>16,64</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-4,71</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,17</t>
+          <t>11,28</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,62; -3,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 15,76</t>
+          <t>-3,11; 15,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,19; 11,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,49; 24,34</t>
+          <t>8,72; 24,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,8; 0,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,76; 18,66</t>
+          <t>5,26; 18,02</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,25%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>21,39%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>49,15%</t>
+          <t>49,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,51%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>34,91%</t>
+          <t>32,36%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,27; -9,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 51,1</t>
+          <t>-7,8; 47,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,82; 38,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,48; 85,17</t>
+          <t>22,21; 85,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,54; 3,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,75; 60,22</t>
+          <t>14,72; 58,96</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,72</t>
+          <t>9,61</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,04</t>
+          <t>7,37</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 12,7</t>
+          <t>-1,65; 12,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,62; 15,03</t>
+          <t>3,48; 14,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,47; 12,59</t>
+          <t>2,64; 11,98</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>16,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,54%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21,2%</t>
+          <t>19,44%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 42,8</t>
+          <t>-4,9; 40,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,79; 37,14</t>
+          <t>7,57; 36,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,47; 34,72</t>
+          <t>6,62; 32,93</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,81</t>
+          <t>-5,07</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>-2,92</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,35; 3,22</t>
+          <t>-12,52; 3,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 5,64</t>
+          <t>-7,82; 5,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 2,37</t>
+          <t>-8,12; 2,11</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-11,51%</t>
+          <t>-12,11%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-1,92%</t>
+          <t>-2,32%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-6,52%</t>
+          <t>-7,09%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,61; 8,54</t>
+          <t>-27,26; 8,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,33; 15,3</t>
+          <t>-17,66; 15,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-18,27; 6,11</t>
+          <t>-18,85; 5,72</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-12,43</t>
+          <t>-11,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,87</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-7,3</t>
+          <t>-8,4</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,86</t>
+          <t>-4,34</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-9,86</t>
+          <t>-9,67</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,52</t>
+          <t>-3,9</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-19,04; -6,53</t>
+          <t>-17,73; -3,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 3,01</t>
+          <t>-13,04; 4,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,08; -0,69</t>
+          <t>-14,67; -0,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 4,56</t>
+          <t>-19,08; 8,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-14,51; -5,44</t>
+          <t>-14,45; -4,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 2,51</t>
+          <t>-14,0; 5,16</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-32,16%</t>
+          <t>-28,46%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-12,6%</t>
+          <t>-10,34%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-17,45%</t>
+          <t>-20,08%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-6,85%</t>
+          <t>-10,38%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-24,5%</t>
+          <t>-24,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-8,74%</t>
+          <t>-9,68%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-45,11; -18,98</t>
+          <t>-42,34; -9,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-33,69; 8,3</t>
+          <t>-31,92; 13,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,83; -1,72</t>
+          <t>-33,39; -2,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-22,27; 11,51</t>
+          <t>-45,2; 20,3</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-33,23; -14,39</t>
+          <t>-33,95; -12,57</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-21,85; 6,47</t>
+          <t>-33,53; 13,32</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-39,84</t>
+          <t>-39,92</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-54,21</t>
+          <t>-54,32</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-47,0</t>
+          <t>-47,11</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-48,54; -31,55</t>
+          <t>-48,54; -31,64</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-61,38; -46,77</t>
+          <t>-61,36; -46,94</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-52,47; -41,36</t>
+          <t>-52,54; -41,46</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-80,04%</t>
+          <t>-80,21%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-79,7%</t>
+          <t>-79,86%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-79,63%</t>
+          <t>-79,81%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-86,33; -70,6</t>
+          <t>-86,44; -70,91</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-84,55; -73,49</t>
+          <t>-84,73; -74,27</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-83,5; -74,84</t>
+          <t>-83,58; -75,02</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,12</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 10,4</t>
+          <t>-5,1; 10,49</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 4,98</t>
+          <t>-10,6; 4,96</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 5,22</t>
+          <t>-5,91; 5,32</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-5,99%</t>
+          <t>-5,92%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-0,38%</t>
+          <t>-0,29%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-12,35; 31,0</t>
+          <t>-12,15; 31,64</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-21,96; 12,18</t>
+          <t>-21,84; 12,17</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 14,04</t>
+          <t>-13,27; 14,23</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-16,26</t>
+          <t>-16,6</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-11,04</t>
+          <t>-15,3</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-13,25</t>
+          <t>-15,75</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-22,06; -10,5</t>
+          <t>-22,5; -10,71</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-24,11; -3,41</t>
+          <t>-31,63; -3,74</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-22,03; -8,62</t>
+          <t>-28,04; -9,52</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-36,32%</t>
+          <t>-37,07%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-23,89%</t>
+          <t>-33,09%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-29,11%</t>
+          <t>-34,6%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-46,98; -25,43</t>
+          <t>-47,7; -25,72</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-50,73; -7,93</t>
+          <t>-66,27; -8,22</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-47,96; -19,55</t>
+          <t>-60,46; -21,04</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-16,04</t>
+          <t>-22,25</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-15,85</t>
+          <t>-15,89</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-15,99</t>
+          <t>-19,95</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-22,78; -11,02</t>
+          <t>-36,4; -12,65</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-21,43; -11,16</t>
+          <t>-21,4; -11,31</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-20,51; -12,46</t>
+          <t>-31,83; -13,66</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-35,46%</t>
+          <t>-49,17%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-30,72%</t>
+          <t>-30,79%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-32,98%</t>
+          <t>-41,14%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-48,65; -25,83</t>
+          <t>-76,49; -28,23</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-38,89; -22,32</t>
+          <t>-38,82; -22,5</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-41,13; -26,49</t>
+          <t>-64,1; -28,97</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-8,45</t>
+          <t>-10,17</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-7,09</t>
+          <t>-8,17</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-7,61</t>
+          <t>-9,1</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-11,22; -5,95</t>
+          <t>-16,69; -6,92</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-11,15; -4,49</t>
+          <t>-14,85; -4,57</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-9,67; -5,72</t>
+          <t>-13,42; -6,39</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-20,58%</t>
+          <t>-24,77%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-15,36%</t>
+          <t>-17,7%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>-17,45%</t>
+          <t>-20,86%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-26,35; -15,03</t>
+          <t>-40,29; -17,03</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-23,78; -9,94</t>
+          <t>-32,08; -10,0</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-22,3; -13,37</t>
+          <t>-31,13; -14,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P34A_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P34A_R-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,62; -3,25</t>
+          <t>-18,78; -3,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,21; 4,1</t>
+          <t>-11,83; 5,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 15,08</t>
+          <t>-3,22; 16,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 11,14</t>
+          <t>-6,73; 10,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 16,5</t>
+          <t>-1,26; 15,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,72; 24,69</t>
+          <t>9,11; 24,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 0,96</t>
+          <t>-10,69; 0,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 7,35</t>
+          <t>-4,49; 7,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,26; 18,02</t>
+          <t>5,36; 17,47</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-48,27; -9,75</t>
+          <t>-47,09; -9,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,03; 12,62</t>
+          <t>-30,12; 15,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 47,76</t>
+          <t>-7,87; 51,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 38,89</t>
+          <t>-17,35; 35,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 57,15</t>
+          <t>-4,01; 53,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,21; 85,2</t>
+          <t>23,13; 85,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-27,54; 3,26</t>
+          <t>-28,51; 2,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 22,89</t>
+          <t>-11,38; 24,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,72; 58,96</t>
+          <t>14,88; 54,71</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,51; -5,79</t>
+          <t>-17,1; -5,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 2,58</t>
+          <t>-9,25; 2,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 12,07</t>
+          <t>-1,44; 13,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,92; -1,27</t>
+          <t>-13,8; -1,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 0,52</t>
+          <t>-12,64; -0,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,48; 14,94</t>
+          <t>3,11; 15,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,15; -5,47</t>
+          <t>-13,44; -4,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,91; -0,44</t>
+          <t>-8,6; -0,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 11,98</t>
+          <t>2,68; 11,92</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-46,9; -19,26</t>
+          <t>-47,49; -18,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,43; 8,52</t>
+          <t>-25,9; 8,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 40,07</t>
+          <t>-4,53; 44,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,95; -3,15</t>
+          <t>-29,78; -3,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,59; 1,41</t>
+          <t>-26,82; -0,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,57; 36,9</t>
+          <t>6,67; 37,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,61; -15,55</t>
+          <t>-33,69; -12,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-21,98; -1,29</t>
+          <t>-21,5; -0,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,62; 32,93</t>
+          <t>6,79; 33,87</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-30,26; -16,21</t>
+          <t>-30,13; -14,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,39; -2,44</t>
+          <t>-17,11; -2,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,52; 3,03</t>
+          <t>-12,37; 3,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-27,61; -14,12</t>
+          <t>-28,27; -14,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 3,45</t>
+          <t>-11,16; 4,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 5,51</t>
+          <t>-7,85; 5,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-26,88; -17,04</t>
+          <t>-27,42; -17,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,18; -1,49</t>
+          <t>-12,14; -1,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 2,11</t>
+          <t>-7,74; 2,03</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-65,9; -42,3</t>
+          <t>-66,23; -40,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,98; -5,61</t>
+          <t>-37,35; -6,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-27,26; 8,18</t>
+          <t>-26,89; 10,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-63,37; -37,99</t>
+          <t>-63,57; -39,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-25,84; 9,85</t>
+          <t>-24,87; 11,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,66; 15,06</t>
+          <t>-17,61; 16,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-61,82; -44,56</t>
+          <t>-62,84; -45,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-27,01; -3,0</t>
+          <t>-28,0; -4,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-18,85; 5,72</t>
+          <t>-17,96; 5,43</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,73; -3,57</t>
+          <t>-17,87; -3,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-23,62; -9,85</t>
+          <t>-23,92; -9,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,04; 4,7</t>
+          <t>-12,27; 5,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,67; -0,79</t>
+          <t>-15,46; -1,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 0,5</t>
+          <t>-14,18; 0,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,08; 8,45</t>
+          <t>-19,29; 8,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-14,45; -4,8</t>
+          <t>-14,51; -5,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-16,75; -6,66</t>
+          <t>-16,86; -6,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-14,0; 5,16</t>
+          <t>-13,27; 5,87</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-42,34; -9,75</t>
+          <t>-43,15; -11,31</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-56,83; -28,42</t>
+          <t>-55,96; -28,36</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-31,92; 13,79</t>
+          <t>-29,36; 15,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-33,39; -2,77</t>
+          <t>-34,08; -2,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,79; 1,26</t>
+          <t>-31,65; 0,05</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-45,2; 20,3</t>
+          <t>-44,54; 21,05</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-33,95; -12,57</t>
+          <t>-34,59; -13,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-39,22; -17,75</t>
+          <t>-39,83; -17,66</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-33,53; 13,32</t>
+          <t>-31,83; 15,04</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-30,68; -11,4</t>
+          <t>-30,32; -11,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-23,52; -4,85</t>
+          <t>-24,32; -5,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-48,54; -31,64</t>
+          <t>-48,21; -31,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-39,42; -19,46</t>
+          <t>-39,52; -20,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-28,58; -9,69</t>
+          <t>-28,67; -10,12</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-61,36; -46,94</t>
+          <t>-61,71; -47,1</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-32,65; -19,21</t>
+          <t>-32,86; -19,34</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-24,51; -11,29</t>
+          <t>-23,73; -10,5</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-52,54; -41,46</t>
+          <t>-52,33; -41,09</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-56,83; -25,61</t>
+          <t>-57,1; -25,28</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-43,63; -10,94</t>
+          <t>-44,58; -12,64</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-86,44; -70,91</t>
+          <t>-86,42; -70,27</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-55,07; -31,4</t>
+          <t>-54,71; -31,51</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-40,28; -15,57</t>
+          <t>-40,24; -16,52</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-84,73; -74,27</t>
+          <t>-84,86; -73,96</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-52,38; -33,76</t>
+          <t>-52,68; -34,14</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-38,88; -19,91</t>
+          <t>-38,13; -18,95</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-83,58; -75,02</t>
+          <t>-83,63; -74,94</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-31,37; -16,31</t>
+          <t>-30,51; -16,08</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,61; 5,11</t>
+          <t>-11,72; 5,06</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 10,49</t>
+          <t>-5,08; 10,32</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-33,21; -18,55</t>
+          <t>-33,39; -17,63</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 4,73</t>
+          <t>-11,69; 5,14</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 4,96</t>
+          <t>-10,69; 4,61</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-30,19; -19,5</t>
+          <t>-29,52; -19,39</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 2,5</t>
+          <t>-9,06; 2,78</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 5,32</t>
+          <t>-5,57; 5,35</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-73,34; -48,74</t>
+          <t>-73,08; -46,98</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-27,54; 15,24</t>
+          <t>-27,73; 14,66</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 31,64</t>
+          <t>-12,39; 30,18</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-67,57; -44,09</t>
+          <t>-68,43; -43,36</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-23,18; 12,27</t>
+          <t>-24,16; 12,8</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-21,84; 12,17</t>
+          <t>-21,32; 11,76</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-67,72; -50,33</t>
+          <t>-67,35; -50,06</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-20,94; 6,75</t>
+          <t>-20,8; 7,1</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-13,27; 14,23</t>
+          <t>-12,46; 14,11</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-29,02; -18,79</t>
+          <t>-29,56; -18,74</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 1,01</t>
+          <t>-10,32; 1,17</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-22,5; -10,71</t>
+          <t>-22,75; -10,32</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-26,21; -15,42</t>
+          <t>-25,62; -14,97</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 5,39</t>
+          <t>-5,02; 5,81</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-31,63; -3,74</t>
+          <t>-32,55; -3,91</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-26,01; -18,26</t>
+          <t>-26,05; -18,7</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 1,72</t>
+          <t>-6,37; 1,52</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-28,04; -9,52</t>
+          <t>-27,64; -9,42</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-61,53; -44,33</t>
+          <t>-61,9; -45,02</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-22,04; 1,98</t>
+          <t>-21,45; 2,69</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-47,7; -25,72</t>
+          <t>-47,34; -24,61</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-52,84; -34,62</t>
+          <t>-52,35; -34,39</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 12,68</t>
+          <t>-10,26; 13,64</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-66,27; -8,22</t>
+          <t>-68,61; -8,28</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-54,99; -42,22</t>
+          <t>-54,94; -42,38</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 4,02</t>
+          <t>-13,26; 3,51</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-60,46; -21,04</t>
+          <t>-59,29; -20,96</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-26,01; -16,12</t>
+          <t>-26,49; -16,29</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-12,48; -2,27</t>
+          <t>-12,31; -1,84</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-36,4; -12,65</t>
+          <t>-37,93; -12,13</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-20,03; -9,99</t>
+          <t>-19,77; -9,58</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 2,13</t>
+          <t>-8,29; 1,97</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-21,4; -11,31</t>
+          <t>-20,79; -11,33</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-21,28; -14,34</t>
+          <t>-21,2; -14,36</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-8,86; -1,42</t>
+          <t>-8,25; -1,03</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-31,83; -13,66</t>
+          <t>-32,21; -14,06</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-54,52; -37,55</t>
+          <t>-54,99; -37,55</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-25,54; -5,29</t>
+          <t>-25,57; -4,38</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-76,49; -28,23</t>
+          <t>-78,23; -27,68</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-37,13; -20,13</t>
+          <t>-36,6; -19,71</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 4,3</t>
+          <t>-15,15; 4,02</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-38,82; -22,5</t>
+          <t>-38,71; -23,31</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-42,54; -30,59</t>
+          <t>-42,78; -31,01</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-17,45; -3,04</t>
+          <t>-16,36; -2,17</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-64,1; -28,97</t>
+          <t>-65,14; -29,32</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-20,84; -16,34</t>
+          <t>-20,97; -16,22</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-9,63; -4,87</t>
+          <t>-9,66; -4,69</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-16,69; -6,92</t>
+          <t>-17,78; -6,9</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-17,47; -12,86</t>
+          <t>-17,36; -12,67</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-5,72; -0,72</t>
+          <t>-5,96; -1,31</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-14,85; -4,57</t>
+          <t>-15,27; -4,63</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-18,42; -15,26</t>
+          <t>-18,5; -15,23</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-7,07; -3,6</t>
+          <t>-7,09; -3,61</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-13,42; -6,39</t>
+          <t>-13,63; -6,28</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-49,31; -40,96</t>
+          <t>-49,51; -40,56</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-22,76; -12,18</t>
+          <t>-22,79; -11,68</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-40,29; -17,03</t>
+          <t>-42,37; -16,96</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-37,11; -28,88</t>
+          <t>-36,76; -28,18</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-12,07; -1,64</t>
+          <t>-12,5; -2,98</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-32,08; -10,0</t>
+          <t>-32,97; -10,28</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-41,4; -35,65</t>
+          <t>-41,64; -35,53</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-15,82; -8,36</t>
+          <t>-16,06; -8,55</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-31,13; -14,95</t>
+          <t>-31,22; -14,41</t>
         </is>
       </c>
     </row>
